--- a/benchmarks/cscs2022/xlsx/Random/190.xlsx
+++ b/benchmarks/cscs2022/xlsx/Random/190.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mnsai\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\PHD\P.h.D papers\Paper_Integer Programming Based Optimization of Power Consumption for DCNs\Solvers\New  benchmarks\New  benchmarks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08DD259-AD44-43F7-A586-2206E6AF54B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95A29B9-56F7-4045-866D-140FE2E9E5BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,584 +35,590 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="190">
   <si>
-    <t>f1</t>
-  </si>
-  <si>
-    <t>f2</t>
-  </si>
-  <si>
-    <t>f3</t>
-  </si>
-  <si>
-    <t>f4</t>
-  </si>
-  <si>
-    <t>f5</t>
-  </si>
-  <si>
-    <t>f6</t>
-  </si>
-  <si>
-    <t>f7</t>
-  </si>
-  <si>
-    <t>f8</t>
-  </si>
-  <si>
-    <t>f9</t>
-  </si>
-  <si>
-    <t>f10</t>
-  </si>
-  <si>
-    <t>f11</t>
-  </si>
-  <si>
-    <t>f12</t>
-  </si>
-  <si>
-    <t>f13</t>
-  </si>
-  <si>
-    <t>f14</t>
-  </si>
-  <si>
-    <t>f15</t>
-  </si>
-  <si>
-    <t>f16</t>
-  </si>
-  <si>
-    <t>f17</t>
-  </si>
-  <si>
-    <t>f18</t>
-  </si>
-  <si>
-    <t>f19</t>
-  </si>
-  <si>
-    <t>f20</t>
-  </si>
-  <si>
-    <t>f21</t>
-  </si>
-  <si>
-    <t>f22</t>
-  </si>
-  <si>
-    <t>f23</t>
-  </si>
-  <si>
-    <t>f24</t>
-  </si>
-  <si>
-    <t>f25</t>
-  </si>
-  <si>
-    <t>f26</t>
-  </si>
-  <si>
-    <t>f27</t>
-  </si>
-  <si>
-    <t>f28</t>
-  </si>
-  <si>
-    <t>f29</t>
-  </si>
-  <si>
-    <t>f30</t>
-  </si>
-  <si>
-    <t>f31</t>
-  </si>
-  <si>
-    <t>f32</t>
-  </si>
-  <si>
-    <t>f33</t>
-  </si>
-  <si>
-    <t>f34</t>
-  </si>
-  <si>
-    <t>f35</t>
-  </si>
-  <si>
-    <t>f36</t>
-  </si>
-  <si>
-    <t>f37</t>
-  </si>
-  <si>
-    <t>f38</t>
-  </si>
-  <si>
-    <t>f39</t>
-  </si>
-  <si>
-    <t>f40</t>
-  </si>
-  <si>
-    <t>f41</t>
-  </si>
-  <si>
-    <t>f42</t>
-  </si>
-  <si>
-    <t>f43</t>
-  </si>
-  <si>
-    <t>f44</t>
-  </si>
-  <si>
-    <t>f45</t>
-  </si>
-  <si>
-    <t>f46</t>
-  </si>
-  <si>
-    <t>f47</t>
-  </si>
-  <si>
-    <t>f48</t>
-  </si>
-  <si>
-    <t>f49</t>
-  </si>
-  <si>
-    <t>f50</t>
-  </si>
-  <si>
-    <t>f51</t>
-  </si>
-  <si>
-    <t>f52</t>
-  </si>
-  <si>
-    <t>f53</t>
-  </si>
-  <si>
-    <t>f54</t>
-  </si>
-  <si>
-    <t>f55</t>
-  </si>
-  <si>
-    <t>f56</t>
-  </si>
-  <si>
-    <t>f57</t>
-  </si>
-  <si>
-    <t>f58</t>
-  </si>
-  <si>
-    <t>f59</t>
-  </si>
-  <si>
-    <t>f60</t>
-  </si>
-  <si>
-    <t>f61</t>
-  </si>
-  <si>
-    <t>f62</t>
-  </si>
-  <si>
-    <t>f63</t>
-  </si>
-  <si>
-    <t>f64</t>
-  </si>
-  <si>
-    <t>f65</t>
-  </si>
-  <si>
-    <t>f66</t>
-  </si>
-  <si>
-    <t>f67</t>
-  </si>
-  <si>
-    <t>f68</t>
-  </si>
-  <si>
-    <t>f69</t>
-  </si>
-  <si>
-    <t>f70</t>
-  </si>
-  <si>
-    <t>f71</t>
-  </si>
-  <si>
-    <t>f72</t>
-  </si>
-  <si>
-    <t>f73</t>
-  </si>
-  <si>
-    <t>f74</t>
-  </si>
-  <si>
-    <t>f75</t>
-  </si>
-  <si>
-    <t>f76</t>
-  </si>
-  <si>
-    <t>f77</t>
-  </si>
-  <si>
-    <t>f78</t>
-  </si>
-  <si>
-    <t>f79</t>
-  </si>
-  <si>
-    <t>f80</t>
-  </si>
-  <si>
-    <t>f81</t>
-  </si>
-  <si>
-    <t>f82</t>
-  </si>
-  <si>
-    <t>f83</t>
-  </si>
-  <si>
-    <t>f84</t>
-  </si>
-  <si>
-    <t>f85</t>
-  </si>
-  <si>
-    <t>f86</t>
-  </si>
-  <si>
-    <t>f87</t>
-  </si>
-  <si>
-    <t>f88</t>
-  </si>
-  <si>
-    <t>f89</t>
-  </si>
-  <si>
-    <t>f90</t>
-  </si>
-  <si>
-    <t>f91</t>
-  </si>
-  <si>
-    <t>f92</t>
-  </si>
-  <si>
-    <t>f93</t>
-  </si>
-  <si>
-    <t>f94</t>
-  </si>
-  <si>
-    <t>f95</t>
-  </si>
-  <si>
-    <t>f96</t>
-  </si>
-  <si>
-    <t>f97</t>
-  </si>
-  <si>
-    <t>f98</t>
-  </si>
-  <si>
-    <t>f99</t>
-  </si>
-  <si>
-    <t>f100</t>
-  </si>
-  <si>
-    <t>f101</t>
-  </si>
-  <si>
-    <t>f102</t>
-  </si>
-  <si>
-    <t>f103</t>
-  </si>
-  <si>
-    <t>f104</t>
-  </si>
-  <si>
-    <t>f105</t>
-  </si>
-  <si>
-    <t>f106</t>
-  </si>
-  <si>
-    <t>f107</t>
-  </si>
-  <si>
-    <t>f108</t>
-  </si>
-  <si>
-    <t>f109</t>
-  </si>
-  <si>
-    <t>f110</t>
-  </si>
-  <si>
-    <t>f111</t>
-  </si>
-  <si>
-    <t>f112</t>
-  </si>
-  <si>
-    <t>f113</t>
-  </si>
-  <si>
-    <t>f114</t>
-  </si>
-  <si>
-    <t>f115</t>
-  </si>
-  <si>
-    <t>f116</t>
-  </si>
-  <si>
-    <t>f117</t>
-  </si>
-  <si>
-    <t>f118</t>
-  </si>
-  <si>
-    <t>f119</t>
-  </si>
-  <si>
-    <t>f120</t>
-  </si>
-  <si>
-    <t>f121</t>
-  </si>
-  <si>
-    <t>f122</t>
-  </si>
-  <si>
-    <t>f123</t>
-  </si>
-  <si>
-    <t>f124</t>
-  </si>
-  <si>
-    <t>f125</t>
-  </si>
-  <si>
-    <t>f126</t>
-  </si>
-  <si>
-    <t>f127</t>
-  </si>
-  <si>
-    <t>f128</t>
-  </si>
-  <si>
-    <t>f129</t>
-  </si>
-  <si>
-    <t>f130</t>
-  </si>
-  <si>
-    <t>f131</t>
-  </si>
-  <si>
-    <t>f132</t>
-  </si>
-  <si>
-    <t>f133</t>
-  </si>
-  <si>
-    <t>f134</t>
-  </si>
-  <si>
-    <t>f135</t>
-  </si>
-  <si>
-    <t>f136</t>
-  </si>
-  <si>
-    <t>f137</t>
-  </si>
-  <si>
-    <t>f138</t>
-  </si>
-  <si>
-    <t>f139</t>
-  </si>
-  <si>
-    <t>f140</t>
-  </si>
-  <si>
-    <t>f141</t>
-  </si>
-  <si>
-    <t>f142</t>
-  </si>
-  <si>
-    <t>f143</t>
-  </si>
-  <si>
-    <t>f144</t>
-  </si>
-  <si>
-    <t>f145</t>
-  </si>
-  <si>
-    <t>f146</t>
-  </si>
-  <si>
-    <t>f147</t>
-  </si>
-  <si>
-    <t>f148</t>
-  </si>
-  <si>
-    <t>f149</t>
-  </si>
-  <si>
-    <t>f150</t>
-  </si>
-  <si>
-    <t>f151</t>
-  </si>
-  <si>
-    <t>f152</t>
-  </si>
-  <si>
-    <t>f153</t>
-  </si>
-  <si>
-    <t>f154</t>
-  </si>
-  <si>
-    <t>f155</t>
-  </si>
-  <si>
-    <t>f156</t>
-  </si>
-  <si>
-    <t>f157</t>
-  </si>
-  <si>
-    <t>f158</t>
-  </si>
-  <si>
-    <t>f159</t>
-  </si>
-  <si>
-    <t>f160</t>
-  </si>
-  <si>
-    <t>f161</t>
-  </si>
-  <si>
-    <t>f162</t>
-  </si>
-  <si>
-    <t>f163</t>
-  </si>
-  <si>
-    <t>f164</t>
-  </si>
-  <si>
-    <t>f165</t>
-  </si>
-  <si>
-    <t>f166</t>
-  </si>
-  <si>
-    <t>f167</t>
-  </si>
-  <si>
-    <t>f168</t>
-  </si>
-  <si>
-    <t>f169</t>
-  </si>
-  <si>
-    <t>f170</t>
-  </si>
-  <si>
-    <t>f171</t>
-  </si>
-  <si>
-    <t>f172</t>
-  </si>
-  <si>
-    <t>f173</t>
-  </si>
-  <si>
-    <t>f174</t>
-  </si>
-  <si>
-    <t>f175</t>
-  </si>
-  <si>
-    <t>f176</t>
-  </si>
-  <si>
-    <t>f177</t>
-  </si>
-  <si>
-    <t>f178</t>
-  </si>
-  <si>
-    <t>f179</t>
-  </si>
-  <si>
-    <t>f180</t>
-  </si>
-  <si>
-    <t>f181</t>
-  </si>
-  <si>
-    <t>f182</t>
-  </si>
-  <si>
-    <t>f183</t>
-  </si>
-  <si>
-    <t>f184</t>
-  </si>
-  <si>
-    <t>f185</t>
-  </si>
-  <si>
-    <t>f186</t>
-  </si>
-  <si>
-    <t>f187</t>
-  </si>
-  <si>
-    <t>f188</t>
-  </si>
-  <si>
-    <t>f189</t>
-  </si>
-  <si>
-    <t>f190</t>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>F12</t>
+  </si>
+  <si>
+    <t>F13</t>
+  </si>
+  <si>
+    <t>F14</t>
+  </si>
+  <si>
+    <t>F15</t>
+  </si>
+  <si>
+    <t>F16</t>
+  </si>
+  <si>
+    <t>F17</t>
+  </si>
+  <si>
+    <t>F18</t>
+  </si>
+  <si>
+    <t>F19</t>
+  </si>
+  <si>
+    <t>F20</t>
+  </si>
+  <si>
+    <t>F21</t>
+  </si>
+  <si>
+    <t>F22</t>
+  </si>
+  <si>
+    <t>F23</t>
+  </si>
+  <si>
+    <t>F24</t>
+  </si>
+  <si>
+    <t>F25</t>
+  </si>
+  <si>
+    <t>F26</t>
+  </si>
+  <si>
+    <t>F27</t>
+  </si>
+  <si>
+    <t>F28</t>
+  </si>
+  <si>
+    <t>F29</t>
+  </si>
+  <si>
+    <t>F30</t>
+  </si>
+  <si>
+    <t>F31</t>
+  </si>
+  <si>
+    <t>F32</t>
+  </si>
+  <si>
+    <t>F33</t>
+  </si>
+  <si>
+    <t>F34</t>
+  </si>
+  <si>
+    <t>F35</t>
+  </si>
+  <si>
+    <t>F36</t>
+  </si>
+  <si>
+    <t>F37</t>
+  </si>
+  <si>
+    <t>F38</t>
+  </si>
+  <si>
+    <t>F39</t>
+  </si>
+  <si>
+    <t>F40</t>
+  </si>
+  <si>
+    <t>F41</t>
+  </si>
+  <si>
+    <t>F42</t>
+  </si>
+  <si>
+    <t>F43</t>
+  </si>
+  <si>
+    <t>F44</t>
+  </si>
+  <si>
+    <t>F45</t>
+  </si>
+  <si>
+    <t>F46</t>
+  </si>
+  <si>
+    <t>F47</t>
+  </si>
+  <si>
+    <t>F48</t>
+  </si>
+  <si>
+    <t>F49</t>
+  </si>
+  <si>
+    <t>F50</t>
+  </si>
+  <si>
+    <t>F51</t>
+  </si>
+  <si>
+    <t>F52</t>
+  </si>
+  <si>
+    <t>F53</t>
+  </si>
+  <si>
+    <t>F54</t>
+  </si>
+  <si>
+    <t>F55</t>
+  </si>
+  <si>
+    <t>F56</t>
+  </si>
+  <si>
+    <t>F57</t>
+  </si>
+  <si>
+    <t>F58</t>
+  </si>
+  <si>
+    <t>F59</t>
+  </si>
+  <si>
+    <t>F60</t>
+  </si>
+  <si>
+    <t>F61</t>
+  </si>
+  <si>
+    <t>F62</t>
+  </si>
+  <si>
+    <t>F63</t>
+  </si>
+  <si>
+    <t>F64</t>
+  </si>
+  <si>
+    <t>F65</t>
+  </si>
+  <si>
+    <t>F66</t>
+  </si>
+  <si>
+    <t>F67</t>
+  </si>
+  <si>
+    <t>F68</t>
+  </si>
+  <si>
+    <t>F69</t>
+  </si>
+  <si>
+    <t>F70</t>
+  </si>
+  <si>
+    <t>F71</t>
+  </si>
+  <si>
+    <t>F72</t>
+  </si>
+  <si>
+    <t>F73</t>
+  </si>
+  <si>
+    <t>F74</t>
+  </si>
+  <si>
+    <t>F75</t>
+  </si>
+  <si>
+    <t>F76</t>
+  </si>
+  <si>
+    <t>F77</t>
+  </si>
+  <si>
+    <t>F78</t>
+  </si>
+  <si>
+    <t>F79</t>
+  </si>
+  <si>
+    <t>F80</t>
+  </si>
+  <si>
+    <t>F81</t>
+  </si>
+  <si>
+    <t>F82</t>
+  </si>
+  <si>
+    <t>F83</t>
+  </si>
+  <si>
+    <t>F84</t>
+  </si>
+  <si>
+    <t>F85</t>
+  </si>
+  <si>
+    <t>F86</t>
+  </si>
+  <si>
+    <t>F87</t>
+  </si>
+  <si>
+    <t>F88</t>
+  </si>
+  <si>
+    <t>F89</t>
+  </si>
+  <si>
+    <t>F90</t>
+  </si>
+  <si>
+    <t>F91</t>
+  </si>
+  <si>
+    <t>F92</t>
+  </si>
+  <si>
+    <t>F93</t>
+  </si>
+  <si>
+    <t>F94</t>
+  </si>
+  <si>
+    <t>F95</t>
+  </si>
+  <si>
+    <t>F96</t>
+  </si>
+  <si>
+    <t>F97</t>
+  </si>
+  <si>
+    <t>F98</t>
+  </si>
+  <si>
+    <t>F99</t>
+  </si>
+  <si>
+    <t>F100</t>
+  </si>
+  <si>
+    <t>F101</t>
+  </si>
+  <si>
+    <t>F102</t>
+  </si>
+  <si>
+    <t>F103</t>
+  </si>
+  <si>
+    <t>F104</t>
+  </si>
+  <si>
+    <t>F105</t>
+  </si>
+  <si>
+    <t>F106</t>
+  </si>
+  <si>
+    <t>F107</t>
+  </si>
+  <si>
+    <t>F108</t>
+  </si>
+  <si>
+    <t>F109</t>
+  </si>
+  <si>
+    <t>F110</t>
+  </si>
+  <si>
+    <t>F111</t>
+  </si>
+  <si>
+    <t>F112</t>
+  </si>
+  <si>
+    <t>F113</t>
+  </si>
+  <si>
+    <t>F114</t>
+  </si>
+  <si>
+    <t>F115</t>
+  </si>
+  <si>
+    <t>F116</t>
+  </si>
+  <si>
+    <t>F117</t>
+  </si>
+  <si>
+    <t>F118</t>
+  </si>
+  <si>
+    <t>F119</t>
+  </si>
+  <si>
+    <t>F120</t>
+  </si>
+  <si>
+    <t>F121</t>
+  </si>
+  <si>
+    <t>F122</t>
+  </si>
+  <si>
+    <t>F123</t>
+  </si>
+  <si>
+    <t>F124</t>
+  </si>
+  <si>
+    <t>F125</t>
+  </si>
+  <si>
+    <t>F126</t>
+  </si>
+  <si>
+    <t>F127</t>
+  </si>
+  <si>
+    <t>F128</t>
+  </si>
+  <si>
+    <t>F129</t>
+  </si>
+  <si>
+    <t>F130</t>
+  </si>
+  <si>
+    <t>F131</t>
+  </si>
+  <si>
+    <t>F132</t>
+  </si>
+  <si>
+    <t>F133</t>
+  </si>
+  <si>
+    <t>F134</t>
+  </si>
+  <si>
+    <t>F135</t>
+  </si>
+  <si>
+    <t>F136</t>
+  </si>
+  <si>
+    <t>F137</t>
+  </si>
+  <si>
+    <t>F138</t>
+  </si>
+  <si>
+    <t>F139</t>
+  </si>
+  <si>
+    <t>F140</t>
+  </si>
+  <si>
+    <t>F141</t>
+  </si>
+  <si>
+    <t>F142</t>
+  </si>
+  <si>
+    <t>F143</t>
+  </si>
+  <si>
+    <t>F144</t>
+  </si>
+  <si>
+    <t>F145</t>
+  </si>
+  <si>
+    <t>F146</t>
+  </si>
+  <si>
+    <t>F147</t>
+  </si>
+  <si>
+    <t>F148</t>
+  </si>
+  <si>
+    <t>F149</t>
+  </si>
+  <si>
+    <t>F150</t>
+  </si>
+  <si>
+    <t>F151</t>
+  </si>
+  <si>
+    <t>F152</t>
+  </si>
+  <si>
+    <t>F153</t>
+  </si>
+  <si>
+    <t>F154</t>
+  </si>
+  <si>
+    <t>F155</t>
+  </si>
+  <si>
+    <t>F156</t>
+  </si>
+  <si>
+    <t>F157</t>
+  </si>
+  <si>
+    <t>F158</t>
+  </si>
+  <si>
+    <t>F159</t>
+  </si>
+  <si>
+    <t>F160</t>
+  </si>
+  <si>
+    <t>F161</t>
+  </si>
+  <si>
+    <t>F162</t>
+  </si>
+  <si>
+    <t>F163</t>
+  </si>
+  <si>
+    <t>F164</t>
+  </si>
+  <si>
+    <t>F165</t>
+  </si>
+  <si>
+    <t>F166</t>
+  </si>
+  <si>
+    <t>F167</t>
+  </si>
+  <si>
+    <t>F168</t>
+  </si>
+  <si>
+    <t>F169</t>
+  </si>
+  <si>
+    <t>F170</t>
+  </si>
+  <si>
+    <t>F171</t>
+  </si>
+  <si>
+    <t>F172</t>
+  </si>
+  <si>
+    <t>F173</t>
+  </si>
+  <si>
+    <t>F174</t>
+  </si>
+  <si>
+    <t>F175</t>
+  </si>
+  <si>
+    <t>F176</t>
+  </si>
+  <si>
+    <t>F177</t>
+  </si>
+  <si>
+    <t>F178</t>
+  </si>
+  <si>
+    <t>F179</t>
+  </si>
+  <si>
+    <t>F180</t>
+  </si>
+  <si>
+    <t>F181</t>
+  </si>
+  <si>
+    <t>F182</t>
+  </si>
+  <si>
+    <t>F183</t>
+  </si>
+  <si>
+    <t>F184</t>
+  </si>
+  <si>
+    <t>F185</t>
+  </si>
+  <si>
+    <t>F186</t>
+  </si>
+  <si>
+    <t>F187</t>
+  </si>
+  <si>
+    <t>F188</t>
+  </si>
+  <si>
+    <t>F189</t>
+  </si>
+  <si>
+    <t>F190</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -923,8 +929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D190"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection sqref="A1:A190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -943,7 +949,7 @@
         <v>9</v>
       </c>
       <c r="D1" s="1">
-        <v>5.227339974356445</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -957,7 +963,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="1">
-        <v>19.923069336226451</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -971,7 +977,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="1">
-        <v>55.528158595522243</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -985,7 +991,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="1">
-        <v>51.780254462964791</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -999,7 +1005,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="1">
-        <v>62.72807969227734</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1013,7 +1019,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="1">
-        <v>82.158003747904132</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1027,7 +1033,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="1">
-        <v>83.637439589703121</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1041,7 +1047,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="1">
-        <v>19.035407831147054</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1055,7 +1061,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="1">
-        <v>26.62984515238189</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1069,7 +1075,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="1">
-        <v>53.25969030476378</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1083,7 +1089,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="1">
-        <v>41.81871979485156</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1097,7 +1103,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="1">
-        <v>34.02702436137686</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1111,7 +1117,7 @@
         <v>9</v>
       </c>
       <c r="D13" s="1">
-        <v>50.498076733405661</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1125,7 +1131,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="1">
-        <v>71.900581911431104</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1139,7 +1145,7 @@
         <v>9</v>
       </c>
       <c r="D15" s="1">
-        <v>47.933721274287407</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1153,7 +1159,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="1">
-        <v>10.553309004832824</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1167,7 +1173,7 @@
         <v>9</v>
       </c>
       <c r="D17" s="1">
-        <v>57.106223493441171</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1181,7 +1187,7 @@
         <v>9</v>
       </c>
       <c r="D18" s="1">
-        <v>17.753230101587928</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1195,7 +1201,7 @@
         <v>9</v>
       </c>
       <c r="D19" s="1">
-        <v>19.627182167866653</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1209,7 +1215,7 @@
         <v>9</v>
       </c>
       <c r="D20" s="1">
-        <v>2.5643554591182562</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1223,7 +1229,7 @@
         <v>9</v>
       </c>
       <c r="D21" s="1">
-        <v>60.360982345398952</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1237,7 +1243,7 @@
         <v>9</v>
       </c>
       <c r="D22" s="1">
-        <v>62.530821580037475</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1251,7 +1257,7 @@
         <v>9</v>
       </c>
       <c r="D23" s="1">
-        <v>49.511786172206335</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1265,7 +1271,7 @@
         <v>9</v>
       </c>
       <c r="D24" s="1">
-        <v>13.906696912910544</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1279,7 +1285,7 @@
         <v>10</v>
       </c>
       <c r="D25" s="1">
-        <v>42.664606403983171</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1293,7 +1299,7 @@
         <v>10</v>
       </c>
       <c r="D26" s="1">
-        <v>47.042664606403982</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1307,7 +1313,7 @@
         <v>10</v>
       </c>
       <c r="D27" s="1">
-        <v>4.0346810885054509</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1321,7 +1327,7 @@
         <v>10</v>
       </c>
       <c r="D28" s="1">
-        <v>9.0994935187569759</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1335,7 +1341,7 @@
         <v>10</v>
       </c>
       <c r="D29" s="1">
-        <v>36.397974075027903</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1349,7 +1355,7 @@
         <v>10</v>
       </c>
       <c r="D30" s="1">
-        <v>34.337711391535755</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1363,7 +1369,7 @@
         <v>10</v>
       </c>
       <c r="D31" s="1">
-        <v>25.409906429736459</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1377,7 +1383,7 @@
         <v>10</v>
       </c>
       <c r="D32" s="1">
-        <v>40.690187998969868</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1391,7 +1397,7 @@
         <v>10</v>
       </c>
       <c r="D33" s="1">
-        <v>5.9232552150399176</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1405,7 +1411,7 @@
         <v>10</v>
       </c>
       <c r="D34" s="1">
-        <v>45.239934758348362</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1419,7 +1425,7 @@
         <v>10</v>
       </c>
       <c r="D35" s="1">
-        <v>70.478152631127145</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1433,7 +1439,7 @@
         <v>10</v>
       </c>
       <c r="D36" s="1">
-        <v>83.268950124474202</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1447,7 +1453,7 @@
         <v>10</v>
       </c>
       <c r="D37" s="1">
-        <v>11.588977594643318</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1461,7 +1467,7 @@
         <v>10</v>
       </c>
       <c r="D38" s="1">
-        <v>81.809597390333934</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1475,7 +1481,7 @@
         <v>10</v>
       </c>
       <c r="D39" s="1">
-        <v>9.6145591896300111</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1489,7 +1495,7 @@
         <v>10</v>
       </c>
       <c r="D40" s="1">
-        <v>45.926688986179066</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1503,7 +1509,7 @@
         <v>10</v>
       </c>
       <c r="D41" s="1">
-        <v>74.255300884196075</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1517,7 +1523,7 @@
         <v>10</v>
       </c>
       <c r="D42" s="1">
-        <v>69.963086960254088</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1531,7 +1537,7 @@
         <v>10</v>
       </c>
       <c r="D43" s="1">
-        <v>63.782298909777658</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1545,7 +1551,7 @@
         <v>10</v>
       </c>
       <c r="D44" s="1">
-        <v>30.045497467593783</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1559,7 +1565,7 @@
         <v>10</v>
       </c>
       <c r="D45" s="1">
-        <v>57.773199416258905</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1573,7 +1579,7 @@
         <v>10</v>
       </c>
       <c r="D46" s="1">
-        <v>43.866426302686925</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1587,7 +1593,7 @@
         <v>10</v>
       </c>
       <c r="D47" s="1">
-        <v>66.100094428706328</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1601,7 +1607,7 @@
         <v>10</v>
       </c>
       <c r="D48" s="1">
-        <v>0.68675422783071505</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1615,7 +1621,7 @@
         <v>11</v>
       </c>
       <c r="D49" s="1">
-        <v>68.085784899944201</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1629,7 +1635,7 @@
         <v>11</v>
       </c>
       <c r="D50" s="1">
-        <v>5.4213505540939169</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1643,7 +1649,7 @@
         <v>11</v>
       </c>
       <c r="D51" s="1">
-        <v>10.762975364745277</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -1657,7 +1663,7 @@
         <v>11</v>
       </c>
       <c r="D52" s="1">
-        <v>74.463844375348799</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -1671,7 +1677,7 @@
         <v>11</v>
       </c>
       <c r="D53" s="1">
-        <v>27.58510723112493</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -1685,7 +1691,7 @@
         <v>11</v>
       </c>
       <c r="D54" s="1">
-        <v>49.828589651598506</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -1699,7 +1705,7 @@
         <v>11</v>
       </c>
       <c r="D55" s="1">
-        <v>49.111057960615483</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -1713,7 +1719,7 @@
         <v>11</v>
       </c>
       <c r="D56" s="1">
-        <v>1.1958861516383639</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -1727,7 +1733,7 @@
         <v>11</v>
       </c>
       <c r="D57" s="1">
-        <v>48.552977756517585</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -1741,7 +1747,7 @@
         <v>11</v>
       </c>
       <c r="D58" s="1">
-        <v>66.09264131388025</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -1755,7 +1761,7 @@
         <v>11</v>
       </c>
       <c r="D59" s="1">
-        <v>75.420553296659492</v>
+        <v>38</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -1769,7 +1775,7 @@
         <v>11</v>
       </c>
       <c r="D60" s="1">
-        <v>61.069919476999118</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -1783,7 +1789,7 @@
         <v>11</v>
       </c>
       <c r="D61" s="1">
-        <v>28.143187435222835</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -1797,7 +1803,7 @@
         <v>11</v>
       </c>
       <c r="D62" s="1">
-        <v>54.213505540939174</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -1811,7 +1817,7 @@
         <v>11</v>
       </c>
       <c r="D63" s="1">
-        <v>66.172367057322802</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -1825,7 +1831,7 @@
         <v>11</v>
       </c>
       <c r="D64" s="1">
-        <v>45.124770788487602</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -1839,7 +1845,7 @@
         <v>11</v>
       </c>
       <c r="D65" s="1">
-        <v>38.268356852427644</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -1853,7 +1859,7 @@
         <v>11</v>
       </c>
       <c r="D66" s="1">
-        <v>18.974726939328708</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -1867,7 +1873,7 @@
         <v>11</v>
       </c>
       <c r="D67" s="1">
-        <v>16.184325918839193</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -1881,7 +1887,7 @@
         <v>11</v>
       </c>
       <c r="D68" s="1">
-        <v>68.883042334369776</v>
+        <v>35</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -1895,7 +1901,7 @@
         <v>11</v>
       </c>
       <c r="D69" s="1">
-        <v>38.906162799968108</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -1909,7 +1915,7 @@
         <v>11</v>
       </c>
       <c r="D70" s="1">
-        <v>53.495973849956151</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -1923,7 +1929,7 @@
         <v>11</v>
       </c>
       <c r="D71" s="1">
-        <v>20.888144781950093</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -1937,7 +1943,7 @@
         <v>11</v>
       </c>
       <c r="D72" s="1">
-        <v>13.154747668022004</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -1951,7 +1957,7 @@
         <v>12</v>
       </c>
       <c r="D73" s="1">
-        <v>59.710003258390358</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -1965,7 +1971,7 @@
         <v>12</v>
       </c>
       <c r="D74" s="1">
-        <v>43.418051482567613</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -1979,7 +1985,7 @@
         <v>12</v>
       </c>
       <c r="D75" s="1">
-        <v>69.648093841642222</v>
+        <v>35</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -1993,7 +1999,7 @@
         <v>12</v>
       </c>
       <c r="D76" s="1">
-        <v>31.687846203975237</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -2007,7 +2013,7 @@
         <v>12</v>
       </c>
       <c r="D77" s="1">
-        <v>13.440860215053764</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -2021,7 +2027,7 @@
         <v>12</v>
       </c>
       <c r="D78" s="1">
-        <v>0.97751710654936463</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -2035,7 +2041,7 @@
         <v>12</v>
       </c>
       <c r="D79" s="1">
-        <v>28.26653633105246</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -2049,7 +2055,7 @@
         <v>12</v>
       </c>
       <c r="D80" s="1">
-        <v>3.6656891495601176</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -2063,7 +2069,7 @@
         <v>12</v>
       </c>
       <c r="D81" s="1">
-        <v>13.277940697295536</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -2077,7 +2083,7 @@
         <v>12</v>
       </c>
       <c r="D82" s="1">
-        <v>79.66764418377322</v>
+        <v>40</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -2091,7 +2097,7 @@
         <v>12</v>
       </c>
       <c r="D83" s="1">
-        <v>52.215705441511894</v>
+        <v>27</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -2105,7 +2111,7 @@
         <v>12</v>
       </c>
       <c r="D84" s="1">
-        <v>49.771912675138481</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -2119,7 +2125,7 @@
         <v>12</v>
       </c>
       <c r="D85" s="1">
-        <v>23.70478983382209</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -2133,7 +2139,7 @@
         <v>12</v>
       </c>
       <c r="D86" s="1">
-        <v>73.965461062235249</v>
+        <v>37</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -2147,7 +2153,7 @@
         <v>12</v>
       </c>
       <c r="D87" s="1">
-        <v>4.9690452916259371</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -2161,7 +2167,7 @@
         <v>12</v>
       </c>
       <c r="D88" s="1">
-        <v>69.077875529488438</v>
+        <v>35</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -2175,7 +2181,7 @@
         <v>12</v>
       </c>
       <c r="D89" s="1">
-        <v>77.549690452916266</v>
+        <v>39</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -2189,7 +2195,7 @@
         <v>12</v>
       </c>
       <c r="D90" s="1">
-        <v>72.254806125773868</v>
+        <v>37</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -2203,7 +2209,7 @@
         <v>12</v>
       </c>
       <c r="D91" s="1">
-        <v>0.48875855327468232</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -2217,7 +2223,7 @@
         <v>12</v>
       </c>
       <c r="D92" s="1">
-        <v>67.693059628543494</v>
+        <v>34</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -2231,7 +2237,7 @@
         <v>12</v>
       </c>
       <c r="D93" s="1">
-        <v>5.9465623981753017</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -2245,7 +2251,7 @@
         <v>12</v>
       </c>
       <c r="D94" s="1">
-        <v>64.597588791137184</v>
+        <v>33</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -2259,7 +2265,7 @@
         <v>12</v>
       </c>
       <c r="D95" s="1">
-        <v>36.005213424568261</v>
+        <v>19</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -2273,7 +2279,7 @@
         <v>12</v>
       </c>
       <c r="D96" s="1">
-        <v>57.99934832192897</v>
+        <v>29</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -2287,7 +2293,7 @@
         <v>13</v>
       </c>
       <c r="D97" s="1">
-        <v>16.456247279059642</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -2301,7 +2307,7 @@
         <v>13</v>
       </c>
       <c r="D98" s="1">
-        <v>21.767522855898999</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -2315,7 +2321,7 @@
         <v>13</v>
       </c>
       <c r="D99" s="1">
-        <v>23.24771441010013</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -2329,7 +2335,7 @@
         <v>13</v>
       </c>
       <c r="D100" s="1">
-        <v>23.595994775794512</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -2343,7 +2349,7 @@
         <v>13</v>
       </c>
       <c r="D101" s="1">
-        <v>74.183717892903786</v>
+        <v>38</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -2357,7 +2363,7 @@
         <v>13</v>
       </c>
       <c r="D102" s="1">
-        <v>79.669133652590332</v>
+        <v>40</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -2371,7 +2377,7 @@
         <v>13</v>
       </c>
       <c r="D103" s="1">
-        <v>10.100130605137135</v>
+        <v>6</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -2385,7 +2391,7 @@
         <v>13</v>
       </c>
       <c r="D104" s="1">
-        <v>45.015237265999133</v>
+        <v>23</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -2399,7 +2405,7 @@
         <v>13</v>
       </c>
       <c r="D105" s="1">
-        <v>62.168045276447543</v>
+        <v>32</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -2413,7 +2419,7 @@
         <v>13</v>
       </c>
       <c r="D106" s="1">
-        <v>53.983456682629516</v>
+        <v>27</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -2427,7 +2433,7 @@
         <v>13</v>
       </c>
       <c r="D107" s="1">
-        <v>67.392250761863295</v>
+        <v>34</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -2441,7 +2447,7 @@
         <v>13</v>
       </c>
       <c r="D108" s="1">
-        <v>8.7940792337831954</v>
+        <v>5</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -2455,7 +2461,7 @@
         <v>13</v>
       </c>
       <c r="D109" s="1">
-        <v>43.099695254680022</v>
+        <v>22</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -2469,7 +2475,7 @@
         <v>13</v>
       </c>
       <c r="D110" s="1">
-        <v>76.273400087070087</v>
+        <v>39</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -2483,7 +2489,7 @@
         <v>13</v>
       </c>
       <c r="D111" s="1">
-        <v>84.8062690465825</v>
+        <v>43</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -2497,7 +2503,7 @@
         <v>13</v>
       </c>
       <c r="D112" s="1">
-        <v>13.67000435350457</v>
+        <v>7</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -2511,7 +2517,7 @@
         <v>13</v>
       </c>
       <c r="D113" s="1">
-        <v>5.311275576839356</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -2525,7 +2531,7 @@
         <v>13</v>
       </c>
       <c r="D114" s="1">
-        <v>8.7070091423595994E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -2539,7 +2545,7 @@
         <v>13</v>
       </c>
       <c r="D115" s="1">
-        <v>77.057030909882457</v>
+        <v>39</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -2553,7 +2559,7 @@
         <v>13</v>
       </c>
       <c r="D116" s="1">
-        <v>44.492816717457558</v>
+        <v>23</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -2567,7 +2573,7 @@
         <v>13</v>
       </c>
       <c r="D117" s="1">
-        <v>12.799303439268611</v>
+        <v>7</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -2581,7 +2587,7 @@
         <v>13</v>
       </c>
       <c r="D118" s="1">
-        <v>24.29255550718328</v>
+        <v>13</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -2595,7 +2601,7 @@
         <v>13</v>
       </c>
       <c r="D119" s="1">
-        <v>79.407923378319552</v>
+        <v>40</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
@@ -2609,7 +2615,7 @@
         <v>13</v>
       </c>
       <c r="D120" s="1">
-        <v>52.329124945581192</v>
+        <v>27</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
@@ -2623,7 +2629,7 @@
         <v>14</v>
       </c>
       <c r="D121" s="1">
-        <v>31.042315134180196</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
@@ -2637,7 +2643,7 @@
         <v>14</v>
       </c>
       <c r="D122" s="1">
-        <v>17.918734752250359</v>
+        <v>9</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
@@ -2651,7 +2657,7 @@
         <v>14</v>
       </c>
       <c r="D123" s="1">
-        <v>25.153529065365525</v>
+        <v>13</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
@@ -2665,7 +2671,7 @@
         <v>14</v>
       </c>
       <c r="D124" s="1">
-        <v>0.67300412215024819</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
@@ -2679,7 +2685,7 @@
         <v>14</v>
       </c>
       <c r="D125" s="1">
-        <v>73.525700344914611</v>
+        <v>37</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
@@ -2693,7 +2699,7 @@
         <v>14</v>
       </c>
       <c r="D126" s="1">
-        <v>59.140237233953059</v>
+        <v>30</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
@@ -2707,7 +2713,7 @@
         <v>14</v>
       </c>
       <c r="D127" s="1">
-        <v>35.921595019769498</v>
+        <v>18</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
@@ -2721,7 +2727,7 @@
         <v>14</v>
       </c>
       <c r="D128" s="1">
-        <v>51.989568436106673</v>
+        <v>26</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
@@ -2735,7 +2741,7 @@
         <v>14</v>
       </c>
       <c r="D129" s="1">
-        <v>59.476739295028182</v>
+        <v>30</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
@@ -2749,7 +2755,7 @@
         <v>14</v>
       </c>
       <c r="D130" s="1">
-        <v>10.599814923866409</v>
+        <v>6</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
@@ -2763,7 +2769,7 @@
         <v>14</v>
       </c>
       <c r="D131" s="1">
-        <v>47.110288550517375</v>
+        <v>24</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
@@ -2777,7 +2783,7 @@
         <v>14</v>
       </c>
       <c r="D132" s="1">
-        <v>24.480524943215276</v>
+        <v>13</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
@@ -2791,7 +2797,7 @@
         <v>14</v>
       </c>
       <c r="D133" s="1">
-        <v>81.770000841255154</v>
+        <v>41</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
@@ -2805,7 +2811,7 @@
         <v>14</v>
       </c>
       <c r="D134" s="1">
-        <v>59.476739295028182</v>
+        <v>30</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
@@ -2819,7 +2825,7 @@
         <v>14</v>
       </c>
       <c r="D135" s="1">
-        <v>80.171616051148305</v>
+        <v>41</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
@@ -2833,7 +2839,7 @@
         <v>14</v>
       </c>
       <c r="D136" s="1">
-        <v>13.544207958273745</v>
+        <v>7</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
@@ -2847,7 +2853,7 @@
         <v>14</v>
       </c>
       <c r="D137" s="1">
-        <v>4.4586523092453945</v>
+        <v>3</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
@@ -2861,7 +2867,7 @@
         <v>14</v>
       </c>
       <c r="D138" s="1">
-        <v>35.332716412888033</v>
+        <v>18</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
@@ -2875,7 +2881,7 @@
         <v>14</v>
       </c>
       <c r="D139" s="1">
-        <v>78.993858837385389</v>
+        <v>40</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
@@ -2889,7 +2895,7 @@
         <v>14</v>
       </c>
       <c r="D140" s="1">
-        <v>14.80609068730546</v>
+        <v>8</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
@@ -2903,7 +2909,7 @@
         <v>14</v>
       </c>
       <c r="D141" s="1">
-        <v>42.062757634390515</v>
+        <v>22</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
@@ -2917,7 +2923,7 @@
         <v>14</v>
       </c>
       <c r="D142" s="1">
-        <v>77.39547404727854</v>
+        <v>39</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
@@ -2931,7 +2937,7 @@
         <v>14</v>
       </c>
       <c r="D143" s="1">
-        <v>6.4776646756961389</v>
+        <v>4</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
@@ -2945,7 +2951,7 @@
         <v>14</v>
       </c>
       <c r="D144" s="1">
-        <v>68.478169428787751</v>
+        <v>35</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
@@ -2959,7 +2965,7 @@
         <v>15</v>
       </c>
       <c r="D145" s="1">
-        <v>83.644951781145451</v>
+        <v>42</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
@@ -2973,7 +2979,7 @@
         <v>15</v>
       </c>
       <c r="D146" s="1">
-        <v>4.7234796299940962</v>
+        <v>3</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
@@ -2987,7 +2993,7 @@
         <v>15</v>
       </c>
       <c r="D147" s="1">
-        <v>50.67900019681165</v>
+        <v>26</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
@@ -3001,7 +3007,7 @@
         <v>15</v>
       </c>
       <c r="D148" s="1">
-        <v>0.59043495374926203</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
@@ -3015,7 +3021,7 @@
         <v>15</v>
       </c>
       <c r="D149" s="1">
-        <v>73.410745916158234</v>
+        <v>37</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
@@ -3029,7 +3035,7 @@
         <v>15</v>
       </c>
       <c r="D150" s="1">
-        <v>6.7900019681165125</v>
+        <v>4</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
@@ -3043,7 +3049,7 @@
         <v>15</v>
       </c>
       <c r="D151" s="1">
-        <v>91.320606179885857</v>
+        <v>46</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
@@ -3057,7 +3063,7 @@
         <v>15</v>
       </c>
       <c r="D152" s="1">
-        <v>21.255658334973432</v>
+        <v>11</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
@@ -3071,7 +3077,7 @@
         <v>15</v>
       </c>
       <c r="D153" s="1">
-        <v>47.333202125565833</v>
+        <v>24</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
@@ -3085,7 +3091,7 @@
         <v>15</v>
       </c>
       <c r="D154" s="1">
-        <v>16.138555402479827</v>
+        <v>9</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
@@ -3099,7 +3105,7 @@
         <v>15</v>
       </c>
       <c r="D155" s="1">
-        <v>65.636685691792962</v>
+        <v>33</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
@@ -3113,7 +3119,7 @@
         <v>15</v>
       </c>
       <c r="D156" s="1">
-        <v>0.49202912812438498</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
@@ -3127,7 +3133,7 @@
         <v>15</v>
       </c>
       <c r="D157" s="1">
-        <v>35.819720527455225</v>
+        <v>18</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
@@ -3141,7 +3147,7 @@
         <v>15</v>
       </c>
       <c r="D158" s="1">
-        <v>84.924227514268836</v>
+        <v>43</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
@@ -3155,7 +3161,7 @@
         <v>15</v>
       </c>
       <c r="D159" s="1">
-        <v>51.072623499311156</v>
+        <v>26</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
@@ -3169,7 +3175,7 @@
         <v>15</v>
       </c>
       <c r="D160" s="1">
-        <v>7.9708718756150363</v>
+        <v>4</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
@@ -3183,7 +3189,7 @@
         <v>15</v>
       </c>
       <c r="D161" s="1">
-        <v>83.644951781145451</v>
+        <v>42</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
@@ -3197,7 +3203,7 @@
         <v>15</v>
       </c>
       <c r="D162" s="1">
-        <v>0.88565243062389287</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
@@ -3211,7 +3217,7 @@
         <v>15</v>
       </c>
       <c r="D163" s="1">
-        <v>86.301909073017114</v>
+        <v>44</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
@@ -3225,7 +3231,7 @@
         <v>15</v>
       </c>
       <c r="D164" s="1">
-        <v>18.598701043101752</v>
+        <v>10</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
@@ -3239,7 +3245,7 @@
         <v>15</v>
       </c>
       <c r="D165" s="1">
-        <v>51.367840976185789</v>
+        <v>26</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
@@ -3253,7 +3259,7 @@
         <v>15</v>
       </c>
       <c r="D166" s="1">
-        <v>56.681755559929144</v>
+        <v>29</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
@@ -3267,7 +3273,7 @@
         <v>15</v>
       </c>
       <c r="D167" s="1">
-        <v>24.109427278094863</v>
+        <v>13</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
@@ -3281,7 +3287,7 @@
         <v>15</v>
       </c>
       <c r="D168" s="1">
-        <v>36.606967132454237</v>
+        <v>19</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
@@ -3295,7 +3301,7 @@
         <v>16</v>
       </c>
       <c r="D169" s="1">
-        <v>26.895238095238092</v>
+        <v>14</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
@@ -3309,7 +3315,7 @@
         <v>16</v>
       </c>
       <c r="D170" s="1">
-        <v>74.819047619047623</v>
+        <v>38</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
@@ -3323,7 +3329,7 @@
         <v>16</v>
       </c>
       <c r="D171" s="1">
-        <v>62.93333333333333</v>
+        <v>32</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
@@ -3337,7 +3343,7 @@
         <v>16</v>
       </c>
       <c r="D172" s="1">
-        <v>67.885714285714286</v>
+        <v>34</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
@@ -3351,7 +3357,7 @@
         <v>16</v>
       </c>
       <c r="D173" s="1">
-        <v>20.723809523809521</v>
+        <v>11</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
@@ -3365,7 +3371,7 @@
         <v>16</v>
       </c>
       <c r="D174" s="1">
-        <v>19.276190476190475</v>
+        <v>10</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
@@ -3379,7 +3385,7 @@
         <v>16</v>
       </c>
       <c r="D175" s="1">
-        <v>35.200000000000003</v>
+        <v>18</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
@@ -3393,7 +3399,7 @@
         <v>16</v>
       </c>
       <c r="D176" s="1">
-        <v>61.333333333333329</v>
+        <v>31</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
@@ -3407,7 +3413,7 @@
         <v>16</v>
       </c>
       <c r="D177" s="1">
-        <v>60.952380952380949</v>
+        <v>31</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
@@ -3421,7 +3427,7 @@
         <v>16</v>
       </c>
       <c r="D178" s="1">
-        <v>39.923809523809524</v>
+        <v>20</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
@@ -3435,7 +3441,7 @@
         <v>16</v>
       </c>
       <c r="D179" s="1">
-        <v>46.55238095238095</v>
+        <v>24</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
@@ -3449,7 +3455,7 @@
         <v>16</v>
       </c>
       <c r="D180" s="1">
-        <v>14.247619047619047</v>
+        <v>8</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
@@ -3463,7 +3469,7 @@
         <v>16</v>
       </c>
       <c r="D181" s="1">
-        <v>45.638095238095239</v>
+        <v>23</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
@@ -3477,7 +3483,7 @@
         <v>16</v>
       </c>
       <c r="D182" s="1">
-        <v>72.38095238095238</v>
+        <v>37</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
@@ -3491,7 +3497,7 @@
         <v>16</v>
       </c>
       <c r="D183" s="1">
-        <v>60.647619047619045</v>
+        <v>31</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
@@ -3505,7 +3511,7 @@
         <v>16</v>
       </c>
       <c r="D184" s="1">
-        <v>26.514285714285716</v>
+        <v>14</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
@@ -3519,7 +3525,7 @@
         <v>16</v>
       </c>
       <c r="D185" s="1">
-        <v>21.257142857142856</v>
+        <v>11</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
@@ -3533,7 +3539,7 @@
         <v>16</v>
       </c>
       <c r="D186" s="1">
-        <v>53.638095238095232</v>
+        <v>27</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
@@ -3547,7 +3553,7 @@
         <v>16</v>
       </c>
       <c r="D187" s="1">
-        <v>59.12380952380952</v>
+        <v>30</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
@@ -3561,7 +3567,7 @@
         <v>16</v>
       </c>
       <c r="D188" s="1">
-        <v>75.352380952380955</v>
+        <v>38</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
@@ -3575,7 +3581,7 @@
         <v>16</v>
       </c>
       <c r="D189" s="1">
-        <v>42.438095238095237</v>
+        <v>22</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
@@ -3589,10 +3595,11 @@
         <v>16</v>
       </c>
       <c r="D190" s="1">
-        <v>0.45714285714285713</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>